--- a/medicine/Mort/Journées_de_septembre/Journées_de_septembre.xlsx
+++ b/medicine/Mort/Journées_de_septembre/Journées_de_septembre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9es_de_septembre</t>
+          <t>Journées_de_septembre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les journées de septembre (en arménien : 1918 թ Բաքվի հայերի կոտորած) est un pogrom de septembre 1918 perpétré par Enver Pacha à la tête de l'armée de l'islam à l'encontre de la population arménienne de Bakou, capitale de la récente république démocratique d'Azerbaïdjan[1],[2],[3]. Le nombre de 10 000 victimes arméniennes est généralement retenu, toutefois certaines sources affirment que le nombre de victimes atteindrait le chiffre de 30 000 Arméniens[1],[2],[3],[4].
+Les journées de septembre (en arménien : 1918 թ Բաքվի հայերի կոտորած) est un pogrom de septembre 1918 perpétré par Enver Pacha à la tête de l'armée de l'islam à l'encontre de la population arménienne de Bakou, capitale de la récente république démocratique d'Azerbaïdjan. Le nombre de 10 000 victimes arméniennes est généralement retenu, toutefois certaines sources affirment que le nombre de victimes atteindrait le chiffre de 30 000 Arméniens.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9es_de_septembre</t>
+          <t>Journées_de_septembre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Journ%C3%A9es_de_septembre</t>
+          <t>Journées_de_septembre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -546,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Journ%C3%A9es_de_septembre</t>
+          <t>Journées_de_septembre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,6 +581,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
